--- a/input/identity_sexbias.xlsx
+++ b/input/identity_sexbias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE2CF49-F949-FA47-BAA9-6A695788970E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AEBF8E-2624-054A-B97D-262B8EAB47AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="440" windowWidth="37420" windowHeight="18660" xr2:uid="{0BC0178E-FBCC-3D48-9AED-0136EB32C184}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -104,7 +104,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -588,16 +588,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US" sz="1200"/>
@@ -704,9 +701,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86873722306450829"/>
+          <c:x val="0.82987699400269255"/>
           <c:y val="0.43703314137971561"/>
-          <c:w val="0.13126290237036434"/>
+          <c:w val="0.17012300599730734"/>
           <c:h val="0.119754393283621"/>
         </c:manualLayout>
       </c:layout>
@@ -2851,7 +2848,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/identity_sexbias.xlsx
+++ b/input/identity_sexbias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AEBF8E-2624-054A-B97D-262B8EAB47AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B4AF3-F6CC-1B41-95FF-E56B4751BC34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="440" windowWidth="37420" windowHeight="18660" xr2:uid="{0BC0178E-FBCC-3D48-9AED-0136EB32C184}"/>
+    <workbookView xWindow="780" yWindow="440" windowWidth="40180" windowHeight="22540" xr2:uid="{0BC0178E-FBCC-3D48-9AED-0136EB32C184}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Percentage of parotein identify between homologs </a:t>
+                  <a:t>Percentage of protein similarity between homologs </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1200">
                   <a:effectLst/>
@@ -1082,7 +1082,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Percentage of parotein identify between homologs </a:t>
+                  <a:t>Percentage of protein similarity between homologs </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2848,11 +2848,12 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>

--- a/input/identity_sexbias.xlsx
+++ b/input/identity_sexbias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B4AF3-F6CC-1B41-95FF-E56B4751BC34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E11C79-C95C-6048-A392-8A904F784415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="440" windowWidth="40180" windowHeight="22540" xr2:uid="{0BC0178E-FBCC-3D48-9AED-0136EB32C184}"/>
   </bookViews>
@@ -144,9 +144,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15066998204171844"/>
+          <c:x val="0.11958182040716413"/>
           <c:y val="4.0268456375838924E-2"/>
-          <c:w val="0.70122530736289546"/>
+          <c:w val="0.71936008322793843"/>
           <c:h val="0.82148232309887437"/>
         </c:manualLayout>
       </c:layout>
@@ -566,37 +566,8 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Proportion among 1:1 single copy homologs</a:t>
+                  <a:t>Number of DE genes</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1200">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
                 <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
@@ -605,8 +576,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.2163722410346374E-2"/>
-              <c:y val="0.10945976951556551"/>
+              <c:x val="1.4029007384439639E-2"/>
+              <c:y val="0.32469155759503571"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2478,13 +2449,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2848,7 +2819,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
